--- a/src/test/resources/data/SearchAPIDatasheet.xlsx
+++ b/src/test/resources/data/SearchAPIDatasheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PublicSearch" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="AwardsDataSheet" sheetId="9" r:id="rId3"/>
     <sheet name="SubsidyMeasureDetails" sheetId="6" r:id="rId4"/>
     <sheet name="BeneficiaryDetails" sheetId="7" r:id="rId5"/>
+    <sheet name="Awards" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AwardsDataSheet!$A$1:$AJ$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="446">
   <si>
     <t>Training</t>
   </si>
@@ -1362,6 +1363,12 @@
   </si>
   <si>
     <t>TD_028</t>
+  </si>
+  <si>
+    <t>Automation 012</t>
+  </si>
+  <si>
+    <t>AW1</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1406,6 +1413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,7 +1451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1529,6 +1542,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1813,10 +1832,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1893,7 +1912,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="34" t="s">
         <v>246</v>
       </c>
       <c r="L2" s="23">
@@ -2281,7 +2300,7 @@
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="34" t="s">
         <v>246</v>
       </c>
       <c r="L17" s="23">
@@ -2307,7 +2326,7 @@
         <v>44197</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="34" t="s">
         <v>246</v>
       </c>
       <c r="L18" s="23">
@@ -2594,8 +2613,8 @@
   <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2652,25 +2671,25 @@
       <c r="J1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="33" t="s">
         <v>56</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="33" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="26" t="s">
@@ -5968,7 +5987,7 @@
         <v>44215</v>
       </c>
       <c r="P61" s="13">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="Q61" s="13">
         <v>43660</v>
@@ -6023,13 +6042,13 @@
         <v>44215</v>
       </c>
       <c r="P62" s="13">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="Q62" s="13">
         <v>43860</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>326</v>
+        <v>444</v>
       </c>
       <c r="S62" s="5" t="s">
         <v>165</v>
@@ -6408,7 +6427,7 @@
         <v>44215</v>
       </c>
       <c r="P69" s="13">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="Q69" s="13">
         <v>43814</v>
@@ -6463,7 +6482,7 @@
         <v>44215</v>
       </c>
       <c r="P70" s="13">
-        <v>44215</v>
+        <v>44217</v>
       </c>
       <c r="Q70" s="13">
         <v>40794</v>
@@ -6825,7 +6844,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13251,8 +13270,8 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13299,16 +13318,16 @@
       <c r="I1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="33" t="s">
         <v>56</v>
       </c>
     </row>
@@ -14530,11 +14549,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15196,19 +15215,19 @@
         <v>326</v>
       </c>
       <c r="B33" s="15">
-        <v>10022407</v>
+        <v>1077853402</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -15372,91 +15391,91 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
-        <v>383</v>
+      <c r="A42" s="5" t="s">
+        <v>444</v>
       </c>
       <c r="B42" s="15">
-        <v>258998622</v>
+        <v>10022407</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>384</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B43" s="15">
-        <v>10022407</v>
+        <v>258998622</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B44" s="15">
-        <v>1002240708</v>
+        <v>10022407</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="15" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B45" s="15">
-        <v>102552253</v>
+        <v>1002240708</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B46" s="15">
-        <v>103530620</v>
+        <v>102552253</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>282</v>
@@ -15468,7 +15487,191 @@
         <v>74</v>
       </c>
       <c r="F46" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" s="15">
+        <v>103530620</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>74</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
